--- a/controller/src/main/resources/jxls_templates/wages.xlsx
+++ b/controller/src/main/resources/jxls_templates/wages.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>工号</t>
     <phoneticPr fontId="3"/>
@@ -1372,97 +1372,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>+計上奨金</t>
-    </r>
-  </si>
-  <si>
-    <t>工号</t>
-  </si>
-  <si>
-    <r>
-      <t>创</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>建年月</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>资发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>放状</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>态</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>实际</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>工</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>资</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（1）</t>
     </r>
   </si>
   <si>
@@ -1497,6 +1406,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -1589,8 +1501,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準 2" xfId="1"/>
@@ -1897,21 +1809,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW1"/>
+  <dimension ref="A1:BS1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
-      <c r="A1" s="6" t="s">
-        <v>71</v>
+    <row r="1" spans="1:71">
+      <c r="A1" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2122,18 +2034,6 @@
       </c>
       <c r="BS1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="BU1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="BW1" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/controller/src/main/resources/jxls_templates/wages.xlsx
+++ b/controller/src/main/resources/jxls_templates/wages.xlsx
@@ -219,7 +219,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>工号</t>
+    <t>卡号</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>

--- a/controller/src/main/resources/jxls_templates/wages.xlsx
+++ b/controller/src/main/resources/jxls_templates/wages.xlsx
@@ -95,9 +95,6 @@
     </r>
   </si>
   <si>
-    <t>専項控除累計（当月まで）</t>
-  </si>
-  <si>
     <r>
       <t>当月応発工資（工</t>
     </r>
@@ -219,7 +216,66 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>卡号</t>
+    <t>姓名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <r>
+      <t>个人社会保</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>险费</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+公</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>金(専項控除)合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -643,17 +699,17 @@
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
     <col min="3" max="4" width="14.625" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="6" max="6" width="34.375" customWidth="1"/>
     <col min="7" max="7" width="40.625" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="27">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -665,13 +721,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
